--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BB5601D4-CE07-47B7-914F-90E6E94DF9C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41850AC-03BE-4B37-A484-5EB68C0CAA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -85,9 +85,6 @@
     <t>Линк кон податоци за кредитот</t>
   </si>
   <si>
-    <t>МКД</t>
-  </si>
-  <si>
     <t>Станбен</t>
   </si>
   <si>
@@ -224,6 +221,9 @@
 4) проценителски трошок 2500мкд
 трошоци за изготвување на нотарски акт и упис на хипотека во катастар на недвижнини
 </t>
+  </si>
+  <si>
+    <t>ДЕН</t>
   </si>
 </sst>
 </file>
@@ -298,7 +298,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -326,15 +326,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -619,8 +618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -641,56 +640,56 @@
     <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="14" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:13" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="12" t="s">
+      <c r="E1" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="M1" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -702,7 +701,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H2" s="4">
         <v>300000</v>
@@ -717,21 +716,21 @@
         <v>13.82</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -743,7 +742,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H3" s="4">
         <v>12300000</v>
@@ -758,21 +757,21 @@
         <v>2.02</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -784,7 +783,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H4" s="4">
         <v>300000</v>
@@ -799,21 +798,21 @@
         <v>13.82</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>30</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -825,7 +824,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H5" s="4">
         <v>12300000</v>
@@ -840,15 +839,15 @@
         <v>2.02</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -866,7 +865,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H6" s="4">
         <v>1500000</v>
@@ -881,15 +880,15 @@
         <v>9.33</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -907,7 +906,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H7" s="4">
         <v>1500000</v>
@@ -922,15 +921,15 @@
         <v>9.27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -948,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H8" s="4">
         <v>1500000</v>
@@ -963,15 +962,15 @@
         <v>10.09</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -989,7 +988,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H9" s="4">
         <v>1500000</v>
@@ -1004,21 +1003,21 @@
         <v>10.029999999999999</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -1030,7 +1029,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H10" s="4">
         <v>200000</v>
@@ -1045,21 +1044,21 @@
         <v>2.02</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -1071,7 +1070,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
@@ -1086,15 +1085,15 @@
         <v>2.13</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1103,7 +1102,7 @@
         <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1112,7 +1111,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="H12" s="4">
         <v>12300000</v>
@@ -1124,15 +1123,15 @@
         <v>2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1141,7 +1140,7 @@
         <v>4</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -1150,7 +1149,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H13" s="3">
         <v>2000000</v>
@@ -1162,15 +1161,15 @@
         <v>4.5</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1179,16 +1178,16 @@
         <v>4</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I14" s="3">
         <v>360</v>
@@ -1199,16 +1198,16 @@
       <c r="K14" s="3">
         <v>3.7</v>
       </c>
-      <c r="L14" s="13" t="s">
-        <v>23</v>
+      <c r="L14" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1217,16 +1216,16 @@
         <v>4</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I15" s="3">
         <v>360</v>
@@ -1237,31 +1236,31 @@
       <c r="K15" s="3">
         <v>4.08</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="7"/>
-      <c r="L16" s="13"/>
+      <c r="L16" s="3"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="8"/>
-      <c r="L17" s="13"/>
+      <c r="L17" s="3"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="9"/>
-      <c r="L18" s="13"/>
+      <c r="L18" s="3"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="9"/>
-      <c r="L19" s="13"/>
+      <c r="L19" s="3"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L20" s="13"/>
+      <c r="L20" s="3"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
@@ -1270,35 +1269,35 @@
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
-      <c r="L21" s="13"/>
+      <c r="L21" s="3"/>
     </row>
     <row r="24" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="10"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="13"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="13"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="11"/>
-      <c r="B27" s="11"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="10"/>
+      <c r="D27" s="10"/>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A41850AC-03BE-4B37-A484-5EB68C0CAA6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A71D9-80C4-4873-800F-7039B4032ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="40">
   <si>
     <t>Банка</t>
   </si>
@@ -88,21 +88,10 @@
     <t>Станбен</t>
   </si>
   <si>
-    <t>во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;</t>
-  </si>
-  <si>
     <t>ЕУР</t>
   </si>
   <si>
     <t>https://capitalbank.com.mk/Web/%D0%A4%D0%98%D0%97%D0%98%D0%A7%D0%9A%D0%98_%D0%9B%D0%98%D0%A6%D0%90/%D0%9A%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8_%D0%B7%D0%B0_%D1%84%D0%B8%D0%B7%D0%B8%D1%87%D0%BA%D0%B8_%D0%BB%D0%B8%D1%86%D0%B0/%D0%9D%D0%B0%D0%BC%D0%B5%D0%BD%D1%81%D0%BA%D0%B8_%D0%BF%D0%BE%D1%82%D1%80%D0%BE%D1%88%D1%83%D0%B2%D0%B0%D1%87%D0%BA%D0%B8_%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8/%D0%A1%D1%82%D0%B0%D0%BD%D0%B1%D0%B5%D0%BD_%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82.aspx</t>
-  </si>
-  <si>
-    <t>3,65% фиксна за првите 5 години
-- потоа 3,7% + 6 месечен еурибор, минимум 6%</t>
-  </si>
-  <si>
-    <t>3,95 фиксна за првите 10 години 
-- потоа 3,7% + 6 месечен еурибор, минимум 6%</t>
   </si>
   <si>
     <t>https://www.pcb.mk/stanben-kredit.nspx</t>
@@ -224,6 +213,19 @@
   </si>
   <si>
     <t>ДЕН</t>
+  </si>
+  <si>
+    <t>3,65% фиксна за првите 5 години
+во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;
+- потоа 3,7% + 6 месечен еурибор, минимум 6%</t>
+  </si>
+  <si>
+    <t>3,95 фиксна за првите 10 години 
+- потоа 3,7% + 6 месечен еурибор, минимум 6%
+во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;</t>
+  </si>
+  <si>
+    <t>Станбени</t>
   </si>
 </sst>
 </file>
@@ -618,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -654,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>14</v>
@@ -683,13 +685,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -701,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H2" s="4">
         <v>300000</v>
@@ -716,21 +718,21 @@
         <v>13.82</v>
       </c>
       <c r="L2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3" t="s">
         <v>27</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -742,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H3" s="4">
         <v>12300000</v>
@@ -757,21 +759,21 @@
         <v>2.02</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -783,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H4" s="4">
         <v>300000</v>
@@ -798,21 +800,21 @@
         <v>13.82</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -824,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H5" s="4">
         <v>12300000</v>
@@ -839,15 +841,15 @@
         <v>2.02</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -865,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H6" s="4">
         <v>1500000</v>
@@ -880,15 +882,15 @@
         <v>9.33</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -906,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H7" s="4">
         <v>1500000</v>
@@ -921,15 +923,15 @@
         <v>9.27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -947,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H8" s="4">
         <v>1500000</v>
@@ -962,15 +964,15 @@
         <v>10.09</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -988,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H9" s="4">
         <v>1500000</v>
@@ -1003,21 +1005,21 @@
         <v>10.029999999999999</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -1029,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H10" s="4">
         <v>200000</v>
@@ -1044,21 +1046,21 @@
         <v>2.02</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -1070,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
@@ -1085,15 +1087,15 @@
         <v>2.13</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1101,8 +1103,8 @@
       <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3" t="s">
-        <v>18</v>
+      <c r="D12" t="s">
+        <v>39</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1111,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H12" s="4">
         <v>12300000</v>
@@ -1123,15 +1125,15 @@
         <v>2</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1149,7 +1151,7 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H13" s="3">
         <v>2000000</v>
@@ -1161,15 +1163,15 @@
         <v>4.5</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1177,16 +1179,13 @@
       <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>18</v>
+      <c r="D14" t="s">
+        <v>39</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I14" s="3">
@@ -1198,16 +1197,16 @@
       <c r="K14" s="3">
         <v>3.7</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1215,16 +1214,13 @@
       <c r="C15" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>18</v>
+      <c r="D15" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H15" s="3" t="s">
         <v>19</v>
       </c>
       <c r="I15" s="3">
@@ -1236,11 +1232,11 @@
       <c r="K15" s="3">
         <v>4.08</v>
       </c>
-      <c r="L15" s="3" t="s">
-        <v>23</v>
+      <c r="L15" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">

--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243A71D9-80C4-4873-800F-7039B4032ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494DE9BB-A537-4C96-A625-695E4288AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
   <si>
     <t>Банка</t>
   </si>
@@ -83,9 +83,6 @@
   </si>
   <si>
     <t>Линк кон податоци за кредитот</t>
-  </si>
-  <si>
-    <t>Станбен</t>
   </si>
   <si>
     <t>ЕУР</t>
@@ -300,7 +297,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -336,6 +333,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -620,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -633,7 +640,7 @@
     <col min="5" max="5" width="18.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="16" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" style="3" customWidth="1"/>
     <col min="10" max="10" width="25" style="3" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" customWidth="1"/>
@@ -656,7 +663,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>14</v>
@@ -685,13 +692,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -703,7 +710,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H2" s="4">
         <v>300000</v>
@@ -718,21 +725,21 @@
         <v>13.82</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -744,7 +751,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H3" s="4">
         <v>12300000</v>
@@ -759,21 +766,21 @@
         <v>2.02</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -785,7 +792,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H4" s="4">
         <v>300000</v>
@@ -800,21 +807,21 @@
         <v>13.82</v>
       </c>
       <c r="L4" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M4" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="M4" s="3" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -826,7 +833,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H5" s="4">
         <v>12300000</v>
@@ -841,15 +848,15 @@
         <v>2.02</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -867,7 +874,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H6" s="4">
         <v>1500000</v>
@@ -882,15 +889,15 @@
         <v>9.33</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -908,7 +915,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H7" s="4">
         <v>1500000</v>
@@ -923,15 +930,15 @@
         <v>9.27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -949,7 +956,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H8" s="4">
         <v>1500000</v>
@@ -964,15 +971,15 @@
         <v>10.09</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -990,7 +997,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H9" s="4">
         <v>1500000</v>
@@ -1005,21 +1012,21 @@
         <v>10.029999999999999</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -1031,7 +1038,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" s="4">
         <v>200000</v>
@@ -1046,21 +1053,21 @@
         <v>2.02</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -1072,7 +1079,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
@@ -1087,15 +1094,15 @@
         <v>2.13</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1104,7 +1111,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1113,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H12" s="4">
         <v>12300000</v>
@@ -1124,16 +1131,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="L12" s="1" t="s">
-        <v>34</v>
+      <c r="L12" s="14" t="s">
+        <v>33</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="172.8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1141,8 +1148,8 @@
       <c r="C13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="3" t="s">
-        <v>18</v>
+      <c r="D13" t="s">
+        <v>38</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -1151,10 +1158,10 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H13" s="3">
-        <v>2000000</v>
+        <v>18</v>
+      </c>
+      <c r="H13" s="15">
+        <v>200000</v>
       </c>
       <c r="I13" s="3">
         <v>360</v>
@@ -1162,16 +1169,16 @@
       <c r="J13" s="3">
         <v>4.5</v>
       </c>
-      <c r="L13" s="1" t="s">
-        <v>35</v>
+      <c r="L13" s="14" t="s">
+        <v>34</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1180,13 +1187,13 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" s="3">
         <v>360</v>
@@ -1197,16 +1204,16 @@
       <c r="K14" s="3">
         <v>3.7</v>
       </c>
-      <c r="L14" s="1" t="s">
-        <v>37</v>
+      <c r="L14" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="M14" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1215,13 +1222,13 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" s="3">
         <v>360</v>
@@ -1232,11 +1239,11 @@
       <c r="K15" s="3">
         <v>4.08</v>
       </c>
-      <c r="L15" s="1" t="s">
-        <v>38</v>
+      <c r="L15" s="14" t="s">
+        <v>37</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1290,7 +1297,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="10"/>
+      <c r="H27" s="17"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>

--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494DE9BB-A537-4C96-A625-695E4288AEF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C3E08C-4DE0-43FD-89A5-6C1C910CA10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
   <si>
     <t>Банка</t>
   </si>
@@ -86,12 +86,6 @@
   </si>
   <si>
     <t>ЕУР</t>
-  </si>
-  <si>
-    <t>https://capitalbank.com.mk/Web/%D0%A4%D0%98%D0%97%D0%98%D0%A7%D0%9A%D0%98_%D0%9B%D0%98%D0%A6%D0%90/%D0%9A%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8_%D0%B7%D0%B0_%D1%84%D0%B8%D0%B7%D0%B8%D1%87%D0%BA%D0%B8_%D0%BB%D0%B8%D1%86%D0%B0/%D0%9D%D0%B0%D0%BC%D0%B5%D0%BD%D1%81%D0%BA%D0%B8_%D0%BF%D0%BE%D1%82%D1%80%D0%BE%D1%88%D1%83%D0%B2%D0%B0%D1%87%D0%BA%D0%B8_%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8/%D0%A1%D1%82%D0%B0%D0%BD%D0%B1%D0%B5%D0%BD_%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82.aspx</t>
-  </si>
-  <si>
-    <t>https://www.pcb.mk/stanben-kredit.nspx</t>
   </si>
   <si>
     <t>Стопанска Банка АД Скопје</t>
@@ -297,7 +291,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -331,10 +325,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -343,6 +333,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -627,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -640,7 +633,7 @@
     <col min="5" max="5" width="18.109375" style="3" customWidth="1"/>
     <col min="6" max="6" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="16" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="14" customWidth="1"/>
     <col min="9" max="9" width="13.88671875" style="3" customWidth="1"/>
     <col min="10" max="10" width="25" style="3" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" customWidth="1"/>
@@ -663,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F1" s="11" t="s">
         <v>14</v>
@@ -692,13 +685,13 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -710,7 +703,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H2" s="4">
         <v>300000</v>
@@ -725,21 +718,21 @@
         <v>13.82</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -751,7 +744,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4">
         <v>12300000</v>
@@ -766,21 +759,21 @@
         <v>2.02</v>
       </c>
       <c r="L3" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -792,7 +785,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4">
         <v>300000</v>
@@ -807,21 +800,21 @@
         <v>13.82</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -833,7 +826,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4">
         <v>12300000</v>
@@ -848,15 +841,15 @@
         <v>2.02</v>
       </c>
       <c r="L5" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="3" t="s">
         <v>24</v>
-      </c>
-      <c r="M5" s="3" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -874,7 +867,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4">
         <v>1500000</v>
@@ -889,15 +882,15 @@
         <v>9.33</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -915,7 +908,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4">
         <v>1500000</v>
@@ -930,15 +923,15 @@
         <v>9.27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -956,7 +949,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4">
         <v>1500000</v>
@@ -971,15 +964,15 @@
         <v>10.09</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -997,7 +990,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4">
         <v>1500000</v>
@@ -1012,21 +1005,21 @@
         <v>10.029999999999999</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -1038,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H10" s="4">
         <v>200000</v>
@@ -1053,21 +1046,21 @@
         <v>2.02</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -1079,7 +1072,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
@@ -1094,15 +1087,15 @@
         <v>2.13</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1111,7 +1104,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1120,7 +1113,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H12" s="4">
         <v>12300000</v>
@@ -1131,16 +1124,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>33</v>
+      <c r="L12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1149,7 +1142,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -1160,7 +1153,7 @@
       <c r="G13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="13">
         <v>200000</v>
       </c>
       <c r="I13" s="3">
@@ -1169,16 +1162,16 @@
       <c r="J13" s="3">
         <v>4.5</v>
       </c>
-      <c r="L13" s="14" t="s">
-        <v>34</v>
+      <c r="L13" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1187,7 +1180,10 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>7</v>
@@ -1204,16 +1200,16 @@
       <c r="K14" s="3">
         <v>3.7</v>
       </c>
-      <c r="L14" s="14" t="s">
-        <v>36</v>
+      <c r="L14" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1222,7 +1218,10 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>38</v>
+        <v>36</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>7</v>
@@ -1239,11 +1238,11 @@
       <c r="K15" s="3">
         <v>4.08</v>
       </c>
-      <c r="L15" s="14" t="s">
-        <v>37</v>
+      <c r="L15" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
@@ -1277,17 +1276,17 @@
     <row r="24" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="25" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="13"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="13"/>
-      <c r="D26" s="13"/>
-      <c r="E26" s="13"/>
-      <c r="F26" s="13"/>
-      <c r="G26" s="13"/>
-      <c r="H26" s="13"/>
-      <c r="I26" s="13"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="13"/>
+      <c r="A26" s="16"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="16"/>
+      <c r="J26" s="16"/>
+      <c r="K26" s="16"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
@@ -1297,7 +1296,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="17"/>
+      <c r="H27" s="15"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
       <c r="K27" s="10"/>

--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2C3E08C-4DE0-43FD-89A5-6C1C910CA10C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2841ABA-E9F5-4817-BB2B-830C127669A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -621,7 +621,7 @@
   <dimension ref="A1:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -3,26 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A2841ABA-E9F5-4817-BB2B-830C127669A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25642F9D-D4BD-4BFC-853B-B8E8090124C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -291,7 +282,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -309,16 +300,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -330,12 +311,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -618,72 +593,72 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.109375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.109375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.6640625" style="14" customWidth="1"/>
-    <col min="9" max="9" width="13.88671875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.7109375" style="10" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
     <col min="10" max="10" width="25" style="3" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="12" width="32.88671875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.44140625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.88671875" style="3"/>
+    <col min="12" max="12" width="32.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="12" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="7" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
@@ -724,7 +699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>19</v>
       </c>
@@ -765,7 +740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>19</v>
       </c>
@@ -806,7 +781,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
@@ -847,7 +822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
@@ -888,7 +863,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -929,7 +904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
@@ -970,7 +945,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1011,7 +986,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1052,7 +1027,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
@@ -1093,7 +1068,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>19</v>
       </c>
@@ -1131,7 +1106,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
@@ -1153,7 +1128,7 @@
       <c r="G13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="9">
         <v>200000</v>
       </c>
       <c r="I13" s="3">
@@ -1169,7 +1144,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1207,7 +1182,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>19</v>
       </c>
@@ -1245,66 +1220,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A17" s="8"/>
-      <c r="L17" s="3"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="9"/>
-      <c r="L18" s="3"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A19" s="9"/>
-      <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="L20" s="3"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="L21" s="3"/>
-    </row>
-    <row r="24" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="25" spans="1:12" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A26" s="16"/>
-      <c r="B26" s="16"/>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16"/>
-      <c r="I26" s="16"/>
-      <c r="J26" s="16"/>
-      <c r="K26" s="16"/>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A27" s="10"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="10"/>
-      <c r="H27" s="15"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
-      <c r="K27" s="10"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A26:K26"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_5ECDA1D8DE64EC019C742CD1B665C4FA4334C151" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,66 +20,63 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
   <si>
     <t>Банка</t>
   </si>
   <si>
+    <t>Примања во (плата, пензија, итн.)</t>
+  </si>
+  <si>
+    <t>Тип на каматна стапка</t>
+  </si>
+  <si>
     <t>Тип на кредит</t>
   </si>
   <si>
-    <t>Тип на каматна стапка</t>
+    <t>Валутна клаузула</t>
+  </si>
+  <si>
+    <t>Обезбеден</t>
+  </si>
+  <si>
+    <t>Валута</t>
   </si>
   <si>
     <t>Најголем износ</t>
   </si>
   <si>
-    <t>Комбинирана</t>
+    <t>Рок (во месеци)</t>
+  </si>
+  <si>
+    <t>Номинална каматна стапка</t>
+  </si>
+  <si>
+    <t>СВТ (Стапка на вкупни трошоци)</t>
+  </si>
+  <si>
+    <t>Додатни информации (услови и сл.)</t>
+  </si>
+  <si>
+    <t>Линк кон податоци за кредитот</t>
+  </si>
+  <si>
+    <t>Стопанска Банка АД Скопје</t>
+  </si>
+  <si>
+    <t>Банката</t>
+  </si>
+  <si>
+    <t>Варијабилна</t>
   </si>
   <si>
     <t>Потрошувачки-ненаменски</t>
   </si>
   <si>
-    <t>Номинална каматна стапка</t>
-  </si>
-  <si>
     <t>Да</t>
   </si>
   <si>
-    <t>Додатни информации (услови и сл.)</t>
-  </si>
-  <si>
-    <t>СВТ (Стапка на вкупни трошоци)</t>
-  </si>
-  <si>
-    <t>Примања во (плата, пензија, итн.)</t>
-  </si>
-  <si>
-    <t>Банката</t>
-  </si>
-  <si>
-    <t>Друга банка</t>
-  </si>
-  <si>
-    <t>Обезбеден</t>
-  </si>
-  <si>
-    <t>Валута</t>
-  </si>
-  <si>
-    <t>Рок (во месеци)</t>
-  </si>
-  <si>
-    <t>Линк кон податоци за кредитот</t>
-  </si>
-  <si>
-    <t>ЕУР</t>
-  </si>
-  <si>
-    <t>Стопанска Банка АД Скопје</t>
-  </si>
-  <si>
-    <t>Варијабилна</t>
+    <t>ДЕН</t>
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
@@ -91,6 +89,9 @@
 </t>
   </si>
   <si>
+    <t>https://www.stb.com.mk/media/4373/%D1%82%D0%B0%D0%B1%D0%B5%D0%BB%D0%B8-%D0%B7%D0%B0-%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8-%D0%B8-%D0%B4%D0%B5%D0%BF%D0%BE%D0%B7%D0%B8%D1%82%D0%B8-%D1%81%D0%BE-%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D1%83%D0%B2%D0%B0nj%D0%B0-01-02-2025.xlsx</t>
+  </si>
+  <si>
     <t xml:space="preserve">потрошувачки кредит обезбеден со депозит со животно осигурување
 20г. на денот на аплицирање
 70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
@@ -98,6 +99,9 @@
 1) апликативен трошок 600мкд
 2) административен трошок 0,50%
 </t>
+  </si>
+  <si>
+    <t>Друга банка</t>
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
@@ -110,7 +114,25 @@
 </t>
   </si>
   <si>
-    <t>https://www.stb.com.mk/media/4373/%D1%82%D0%B0%D0%B1%D0%B5%D0%BB%D0%B8-%D0%B7%D0%B0-%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8-%D0%B8-%D0%B4%D0%B5%D0%BF%D0%BE%D0%B7%D0%B8%D1%82%D0%B8-%D1%81%D0%BE-%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D1%83%D0%B2%D0%B0nj%D0%B0-01-02-2025.xlsx</t>
+    <t>aaaaaa</t>
+  </si>
+  <si>
+    <t>Комбинирана</t>
+  </si>
+  <si>
+    <t>Даaaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
+20г. на денот на аплицирање
+67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
+11,60% за кредит до 300.000 МКД
+10.70% за кредит над 300.001 МКД
+1) апликативен трошок 600мкд
+2) административен трошок 2%
+3) полиса за осигурување од незгода зависно од параметрите на кредитот
+трошоци за Нотарска солемнизација на Договорот за кредит
+</t>
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
@@ -128,18 +150,6 @@
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
 20г. на денот на аплицирање
 67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
-11,60% за кредит до 300.000 МКД
-10.70% за кредит над 300.001 МКД
-1) апликативен трошок 600мкд
-2) административен трошок 2%
-3) полиса за осигурување од незгода зависно од параметрите на кредитот
-трошоци за Нотарска солемнизација на Договорот за кредит
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
 12,89% за кредит до 300.000 МКД
 11,89% за кредит над 300.001 МКД
 1) апликативен трошок 600мкд
@@ -161,9 +171,6 @@
 </t>
   </si>
   <si>
-    <t>Валутна клаузула</t>
-  </si>
-  <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
 20г. на денот на аплицирање
 70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
@@ -174,11 +181,17 @@
 </t>
   </si>
   <si>
+    <t>Станбени</t>
+  </si>
+  <si>
     <t xml:space="preserve">каматната стапка на депозитот кој е ставен како обезбедување + 2пп
 1) апликативен трошок 600мкд
 2) административен трошок 0,50%
 70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
 </t>
+  </si>
+  <si>
+    <t>ЕУР</t>
   </si>
   <si>
     <t xml:space="preserve">4,50 фиксна 36 месеци , 6,85пп + 6 месечен ЕУРИБОР, 15% учество (6,94%)
@@ -190,9 +203,6 @@
 </t>
   </si>
   <si>
-    <t>ДЕН</t>
-  </si>
-  <si>
     <t>3,65% фиксна за првите 5 години
 во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;
 - потоа 3,7% + 6 месечен еурибор, минимум 6%</t>
@@ -201,16 +211,13 @@
     <t>3,95 фиксна за првите 10 години 
 - потоа 3,7% + 6 месечен еурибор, минимум 6%
 во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;</t>
-  </si>
-  <si>
-    <t>Станбени</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -588,14 +595,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="27" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
@@ -613,68 +620,68 @@
     <col min="14" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="60">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="G1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="7" t="s">
+      <c r="D2" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="E2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H2" s="4">
         <v>300000</v>
@@ -689,33 +696,33 @@
         <v>13.82</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H3" s="4">
         <v>12300000</v>
@@ -733,30 +740,30 @@
         <v>21</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="4">
         <v>300000</v>
@@ -771,33 +778,33 @@
         <v>13.82</v>
       </c>
       <c r="L4" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H5" s="4">
         <v>12300000</v>
@@ -815,30 +822,30 @@
         <v>21</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G6" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H6" s="4">
         <v>1500000</v>
@@ -853,33 +860,33 @@
         <v>9.33</v>
       </c>
       <c r="L6" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="D7" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H7" s="4">
         <v>1500000</v>
@@ -894,33 +901,33 @@
         <v>9.27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="4">
         <v>1500000</v>
@@ -935,33 +942,33 @@
         <v>10.09</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H9" s="4">
         <v>1500000</v>
@@ -976,33 +983,33 @@
         <v>10.029999999999999</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H10" s="4">
         <v>200000</v>
@@ -1017,33 +1024,33 @@
         <v>2.02</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
@@ -1058,33 +1065,33 @@
         <v>2.13</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>32</v>
       </c>
       <c r="H12" s="4">
         <v>12300000</v>
@@ -1096,33 +1103,33 @@
         <v>2</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D13" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="H13" s="9">
         <v>200000</v>
@@ -1134,33 +1141,33 @@
         <v>4.5</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I14" s="3">
         <v>360</v>
@@ -1172,33 +1179,33 @@
         <v>3.7</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I15" s="3">
         <v>360</v>
@@ -1210,10 +1217,10 @@
         <v>4.08</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28906"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="11_5ECDA1D8DE64EC019C742CD1B665C4FA4334C151" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25642F9D-D4BD-4BFC-853B-B8E8090124C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,21 +20,48 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="37">
   <si>
     <t>Банка</t>
   </si>
   <si>
+    <t>Тип на кредит</t>
+  </si>
+  <si>
+    <t>Тип на каматна стапка</t>
+  </si>
+  <si>
+    <t>Најголем износ</t>
+  </si>
+  <si>
+    <t>Комбинирана</t>
+  </si>
+  <si>
+    <t>Потрошувачки-ненаменски</t>
+  </si>
+  <si>
+    <t>Номинална каматна стапка</t>
+  </si>
+  <si>
+    <t>Да</t>
+  </si>
+  <si>
+    <t>Не</t>
+  </si>
+  <si>
+    <t>Додатни информации (услови и сл.)</t>
+  </si>
+  <si>
+    <t>СВТ (Стапка на вкупни трошоци)</t>
+  </si>
+  <si>
     <t>Примања во (плата, пензија, итн.)</t>
   </si>
   <si>
-    <t>Тип на каматна стапка</t>
-  </si>
-  <si>
-    <t>Тип на кредит</t>
-  </si>
-  <si>
-    <t>Валутна клаузула</t>
+    <t>Банката</t>
+  </si>
+  <si>
+    <t>Друга банка</t>
   </si>
   <si>
     <t>Обезбеден</t>
@@ -43,40 +70,19 @@
     <t>Валута</t>
   </si>
   <si>
-    <t>Најголем износ</t>
-  </si>
-  <si>
     <t>Рок (во месеци)</t>
   </si>
   <si>
-    <t>Номинална каматна стапка</t>
-  </si>
-  <si>
-    <t>СВТ (Стапка на вкупни трошоци)</t>
-  </si>
-  <si>
-    <t>Додатни информации (услови и сл.)</t>
-  </si>
-  <si>
     <t>Линк кон податоци за кредитот</t>
   </si>
   <si>
+    <t>ЕУР</t>
+  </si>
+  <si>
     <t>Стопанска Банка АД Скопје</t>
   </si>
   <si>
-    <t>Банката</t>
-  </si>
-  <si>
     <t>Варијабилна</t>
-  </si>
-  <si>
-    <t>Потрошувачки-ненаменски</t>
-  </si>
-  <si>
-    <t>Да</t>
-  </si>
-  <si>
-    <t>ДЕН</t>
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
@@ -89,9 +95,6 @@
 </t>
   </si>
   <si>
-    <t>https://www.stb.com.mk/media/4373/%D1%82%D0%B0%D0%B1%D0%B5%D0%BB%D0%B8-%D0%B7%D0%B0-%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8-%D0%B8-%D0%B4%D0%B5%D0%BF%D0%BE%D0%B7%D0%B8%D1%82%D0%B8-%D1%81%D0%BE-%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D1%83%D0%B2%D0%B0nj%D0%B0-01-02-2025.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">потрошувачки кредит обезбеден со депозит со животно осигурување
 20г. на денот на аплицирање
 70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
@@ -99,9 +102,6 @@
 1) апликативен трошок 600мкд
 2) административен трошок 0,50%
 </t>
-  </si>
-  <si>
-    <t>Друга банка</t>
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
@@ -114,13 +114,19 @@
 </t>
   </si>
   <si>
-    <t>aaaaaa</t>
-  </si>
-  <si>
-    <t>Комбинирана</t>
-  </si>
-  <si>
-    <t>Даaaa</t>
+    <t>https://www.stb.com.mk/media/4373/%D1%82%D0%B0%D0%B1%D0%B5%D0%BB%D0%B8-%D0%B7%D0%B0-%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8-%D0%B8-%D0%B4%D0%B5%D0%BF%D0%BE%D0%B7%D0%B8%D1%82%D0%B8-%D1%81%D0%BE-%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D1%83%D0%B2%D0%B0nj%D0%B0-01-02-2025.xlsx</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
+20г. на денот на аплицирање
+67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
+11,60% за кредит до 300.000 МКД
+10.70% за кредит над 300.001 МКД
+1) апликативен трошок 600мкд
+2) административен трошок 2%
+3) полиса за осигурување од незгода 600мкд
+трошоци за Нотарска солемнизација на Договорот за кредит
+</t>
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
@@ -138,18 +144,6 @@
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
 20г. на денот на аплицирање
 67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
-11,60% за кредит до 300.000 МКД
-10.70% за кредит над 300.001 МКД
-1) апликативен трошок 600мкд
-2) административен трошок 2%
-3) полиса за осигурување од незгода 600мкд
-трошоци за Нотарска солемнизација на Договорот за кредит
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
 12,89% за кредит до 300.000 МКД
 11,89% за кредит над 300.001 МКД
 1) апликативен трошок 600мкд
@@ -171,6 +165,9 @@
 </t>
   </si>
   <si>
+    <t>Валутна клаузула</t>
+  </si>
+  <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
 20г. на денот на аплицирање
 70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
@@ -181,17 +178,11 @@
 </t>
   </si>
   <si>
-    <t>Станбени</t>
-  </si>
-  <si>
     <t xml:space="preserve">каматната стапка на депозитот кој е ставен како обезбедување + 2пп
 1) апликативен трошок 600мкд
 2) административен трошок 0,50%
 70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
 </t>
-  </si>
-  <si>
-    <t>ЕУР</t>
   </si>
   <si>
     <t xml:space="preserve">4,50 фиксна 36 месеци , 6,85пп + 6 месечен ЕУРИБОР, 15% учество (6,94%)
@@ -203,6 +194,9 @@
 </t>
   </si>
   <si>
+    <t>ДЕН</t>
+  </si>
+  <si>
     <t>3,65% фиксна за првите 5 години
 во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;
 - потоа 3,7% + 6 месечен еурибор, минимум 6%</t>
@@ -211,13 +205,16 @@
     <t>3,95 фиксна за првите 10 години 
 - потоа 3,7% + 6 месечен еурибор, минимум 6%
 во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;</t>
+  </si>
+  <si>
+    <t>Станбени</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -599,10 +596,10 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
@@ -620,68 +617,68 @@
     <col min="14" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="60">
+    <row r="1" spans="1:13" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="7" t="s">
+      <c r="I1" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="7" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="7" t="s">
-        <v>9</v>
       </c>
       <c r="K1" s="7" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="M1" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>14</v>
-      </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H2" s="4">
         <v>300000</v>
@@ -696,33 +693,33 @@
         <v>13.82</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="M2" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D3" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H3" s="4">
         <v>12300000</v>
@@ -737,33 +734,33 @@
         <v>2.02</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M3" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D4" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H4" s="4">
         <v>300000</v>
@@ -781,30 +778,30 @@
         <v>23</v>
       </c>
       <c r="M4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H5" s="4">
         <v>12300000</v>
@@ -819,33 +816,33 @@
         <v>2.02</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H6" s="4">
         <v>1500000</v>
@@ -860,33 +857,33 @@
         <v>9.33</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H7" s="4">
         <v>1500000</v>
@@ -901,33 +898,33 @@
         <v>9.27</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C8" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H8" s="4">
         <v>1500000</v>
@@ -942,33 +939,33 @@
         <v>10.09</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="3" t="s">
-        <v>22</v>
-      </c>
       <c r="C9" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H9" s="4">
         <v>1500000</v>
@@ -983,33 +980,33 @@
         <v>10.029999999999999</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M9" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D10" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H10" s="4">
         <v>200000</v>
@@ -1024,33 +1021,33 @@
         <v>2.02</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M10" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="A11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="D11" s="3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
@@ -1065,33 +1062,33 @@
         <v>2.13</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="H12" s="4">
         <v>12300000</v>
@@ -1103,33 +1100,33 @@
         <v>2</v>
       </c>
       <c r="L12" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="H13" s="9">
         <v>200000</v>
@@ -1141,33 +1138,33 @@
         <v>4.5</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I14" s="3">
         <v>360</v>
@@ -1179,33 +1176,33 @@
         <v>3.7</v>
       </c>
       <c r="L14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
         <v>36</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>32</v>
-      </c>
       <c r="E15" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="I15" s="3">
         <v>360</v>
@@ -1217,10 +1214,10 @@
         <v>4.08</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/kreditiSTB.xlsx
+++ b/kreditiSTB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25642F9D-D4BD-4BFC-853B-B8E8090124C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{979BC10E-639C-4719-ACC0-679A7C0E328C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Друга банка</t>
   </si>
   <si>
-    <t>Обезбеден</t>
-  </si>
-  <si>
     <t>Валута</t>
   </si>
   <si>
@@ -85,9 +82,43 @@
     <t>Варијабилна</t>
   </si>
   <si>
+    <t>https://www.stb.com.mk/media/4373/%D1%82%D0%B0%D0%B1%D0%B5%D0%BB%D0%B8-%D0%B7%D0%B0-%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8-%D0%B8-%D0%B4%D0%B5%D0%BF%D0%BE%D0%B7%D0%B8%D1%82%D0%B8-%D1%81%D0%BE-%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D1%83%D0%B2%D0%B0nj%D0%B0-01-02-2025.xlsx</t>
+  </si>
+  <si>
+    <t>Валутна клаузула</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4,50 фиксна 36 месеци , 6,85пп + 6 месечен ЕУРИБОР, 15% учество (6,94%)
+1) апликативен трошок 600мкд
+2) трошок за генерирање имотен лист 400мкд
+3) административен трошок 2%
+4) проценителски трошок 2500мкд
+трошоци за изготвување на нотарски акт и упис на хипотека во катастар на недвижнини
+</t>
+  </si>
+  <si>
+    <t>3,65% фиксна за првите 5 години
+во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;
+- потоа 3,7% + 6 месечен еурибор, минимум 6%</t>
+  </si>
+  <si>
+    <t>3,95 фиксна за првите 10 години 
+- потоа 3,7% + 6 месечен еурибор, минимум 6%
+во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;</t>
+  </si>
+  <si>
+    <t>Станбени</t>
+  </si>
+  <si>
+    <t>ОбезбеМКД</t>
+  </si>
+  <si>
+    <t>МКД</t>
+  </si>
+  <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-67г. на денот на достасување
+20г. на МКДот на аплицирање
+67г. на МКДот на достасување
 Вид и висина на избрана референтна каматна стапка/индекс
 каматна стапка на благајнички записи
 5.55%
@@ -95,9 +126,9 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">потрошувачки кредит обезбеден со депозит со животно осигурување
-20г. на денот на аплицирање
-70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
+    <t xml:space="preserve">потрошувачки кредит обезбеМКД со депозит со животно осигурување
+20г. на МКДот на аплицирање
+70г. на МКДот на достасување ( 75 со вклучен ко-кредитобарател)
 каматната стапка на депозитот кој е ставен како обезбедување
 1) апликативен трошок 600мкд
 2) административен трошок 0,50%
@@ -105,8 +136,8 @@
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-67г. на денот на достасување
+20г. на МКДот на аплицирање
+67г. на МКДот на достасување
 Вид и висина на избрана референтна каматна стапка/индекс
 каматна стапка на благајнички записи
 6.00%
@@ -114,12 +145,21 @@
 </t>
   </si>
   <si>
-    <t>https://www.stb.com.mk/media/4373/%D1%82%D0%B0%D0%B1%D0%B5%D0%BB%D0%B8-%D0%B7%D0%B0-%D0%BA%D1%80%D0%B5%D0%B4%D0%B8%D1%82%D0%B8-%D0%B8-%D0%B4%D0%B5%D0%BF%D0%BE%D0%B7%D0%B8%D1%82%D0%B8-%D1%81%D0%BE-%D0%B4%D0%BE%D0%BF%D0%BE%D0%BB%D0%BD%D1%83%D0%B2%D0%B0nj%D0%B0-01-02-2025.xlsx</t>
-  </si>
-  <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
+20г. на МКДот на аплицирање
+67г. на МКДот на достасување ( 70 со вклучен ко-кредитобарател)
+11,60% за кредит до 300.000 МКД
+10.70% за кредит над 300.001 МКД
+1) апликативен трошок 600мкд
+2) административен трошок 2%
+3) полиса за осигурување од незгода зависно од параметрите на кредитот
+трошоци за Нотарска солемнизација на Договорот за кредит
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
+20г. на МКДот на аплицирање
+67г. на МКДот на достасување ( 70 со вклучен ко-кредитобарател)
 11,60% за кредит до 300.000 МКД
 10.70% за кредит над 300.001 МКД
 1) апликативен трошок 600мкд
@@ -130,20 +170,8 @@
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
-11,60% за кредит до 300.000 МКД
-10.70% за кредит над 300.001 МКД
-1) апликативен трошок 600мкд
-2) административен трошок 2%
-3) полиса за осигурување од незгода зависно од параметрите на кредитот
-трошоци за Нотарска солемнизација на Договорот за кредит
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
+20г. на МКДот на аплицирање
+67г. на МКДот на достасување ( 70 со вклучен ко-кредитобарател)
 12,89% за кредит до 300.000 МКД
 11,89% за кредит над 300.001 МКД
 1) апликативен трошок 600мкд
@@ -154,8 +182,8 @@
   </si>
   <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-67г. на денот на достасување ( 70 со вклучен ко-кредитобарател)
+20г. на МКДот на аплицирање
+67г. на МКДот на достасување ( 70 со вклучен ко-кредитобарател)
 11,60% за кредит до 300.000 МКД
 10.70% за кредит над 300.001 МКД
 1) апликативен трошок 600мкд
@@ -165,12 +193,9 @@
 </t>
   </si>
   <si>
-    <t>Валутна клаузула</t>
-  </si>
-  <si>
     <t xml:space="preserve">Максимум возраст на клиентот при аплицирање/достасување на кредитот 
-20г. на денот на аплицирање
-70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
+20г. на МКДот на аплицирање
+70г. на МКДот на достасување ( 75 со вклучен ко-кредитобарател)
 Вид (валута) и висина на избрана референтна каматна стапка/индекс
 каматната стапка на депозитот кој е ставен како обезбедување
 1) апликативен трошок 600мкд
@@ -181,33 +206,8 @@
     <t xml:space="preserve">каматната стапка на депозитот кој е ставен како обезбедување + 2пп
 1) апликативен трошок 600мкд
 2) административен трошок 0,50%
-70г. на денот на достасување ( 75 со вклучен ко-кредитобарател)
+70г. на МКДот на достасување ( 75 со вклучен ко-кредитобарател)
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">4,50 фиксна 36 месеци , 6,85пп + 6 месечен ЕУРИБОР, 15% учество (6,94%)
-1) апликативен трошок 600мкд
-2) трошок за генерирање имотен лист 400мкд
-3) административен трошок 2%
-4) проценителски трошок 2500мкд
-трошоци за изготвување на нотарски акт и упис на хипотека во катастар на недвижнини
-</t>
-  </si>
-  <si>
-    <t>ДЕН</t>
-  </si>
-  <si>
-    <t>3,65% фиксна за првите 5 години
-во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;
-- потоа 3,7% + 6 месечен еурибор, минимум 6%</t>
-  </si>
-  <si>
-    <t>3,95 фиксна за првите 10 години 
-- потоа 3,7% + 6 месечен еурибор, минимум 6%
-во зависност од обезбедувањето, односно 70% од проценетата вредност на колатералот;</t>
-  </si>
-  <si>
-    <t>Станбени</t>
   </si>
 </sst>
 </file>
@@ -294,12 +294,6 @@
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -311,6 +305,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -596,77 +596,77 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="16.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="29.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.7109375" style="10" customWidth="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="16.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="29.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.6640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" style="3" customWidth="1"/>
     <col min="10" max="10" width="25" style="3" customWidth="1"/>
     <col min="11" max="11" width="12" style="3" customWidth="1"/>
-    <col min="12" max="12" width="32.85546875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="8.85546875" style="3"/>
+    <col min="12" max="12" width="32.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.44140625" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="8" customFormat="1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:13" s="6" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="E1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="H1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" s="7" t="s">
+      <c r="J1" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>8</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H2" s="4">
         <v>300000</v>
@@ -692,22 +692,22 @@
       <c r="K2" s="3">
         <v>13.82</v>
       </c>
-      <c r="L2" s="5" t="s">
-        <v>21</v>
+      <c r="L2" s="9" t="s">
+        <v>28</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>5</v>
@@ -719,7 +719,7 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H3" s="4">
         <v>12300000</v>
@@ -733,22 +733,22 @@
       <c r="K3" s="3">
         <v>2.02</v>
       </c>
-      <c r="L3" s="6" t="s">
-        <v>22</v>
+      <c r="L3" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="M3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>5</v>
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4">
         <v>300000</v>
@@ -774,22 +774,22 @@
       <c r="K4" s="3">
         <v>13.82</v>
       </c>
-      <c r="L4" s="5" t="s">
-        <v>23</v>
+      <c r="L4" s="9" t="s">
+        <v>30</v>
       </c>
       <c r="M4" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>5</v>
@@ -801,7 +801,7 @@
         <v>7</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H5" s="4">
         <v>12300000</v>
@@ -815,16 +815,16 @@
       <c r="K5" s="3">
         <v>2.02</v>
       </c>
-      <c r="L5" s="6" t="s">
-        <v>22</v>
+      <c r="L5" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>12</v>
@@ -842,7 +842,7 @@
         <v>8</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4">
         <v>1500000</v>
@@ -856,16 +856,16 @@
       <c r="K6" s="3">
         <v>9.33</v>
       </c>
-      <c r="L6" s="6" t="s">
-        <v>26</v>
+      <c r="L6" s="10" t="s">
+        <v>31</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>12</v>
@@ -883,7 +883,7 @@
         <v>8</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H7" s="4">
         <v>1500000</v>
@@ -897,16 +897,16 @@
       <c r="K7" s="3">
         <v>9.27</v>
       </c>
-      <c r="L7" s="6" t="s">
-        <v>25</v>
+      <c r="L7" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>13</v>
@@ -924,7 +924,7 @@
         <v>8</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H8" s="4">
         <v>1500000</v>
@@ -938,16 +938,16 @@
       <c r="K8" s="3">
         <v>10.09</v>
       </c>
-      <c r="L8" s="6" t="s">
-        <v>27</v>
+      <c r="L8" s="10" t="s">
+        <v>33</v>
       </c>
       <c r="M8" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>13</v>
@@ -965,7 +965,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H9" s="4">
         <v>1500000</v>
@@ -979,22 +979,22 @@
       <c r="K9" s="3">
         <v>10.029999999999999</v>
       </c>
-      <c r="L9" s="6" t="s">
-        <v>28</v>
+      <c r="L9" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="M9" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -1006,7 +1006,7 @@
         <v>7</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H10" s="4">
         <v>200000</v>
@@ -1020,22 +1020,22 @@
       <c r="K10" s="3">
         <v>2.02</v>
       </c>
-      <c r="L10" s="6" t="s">
-        <v>30</v>
+      <c r="L10" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="M10" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -1047,7 +1047,7 @@
         <v>7</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H11" s="4">
         <v>200000</v>
@@ -1061,16 +1061,16 @@
       <c r="K11" s="3">
         <v>2.13</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>30</v>
+      <c r="L11" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="M11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>12</v>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>8</v>
@@ -1088,7 +1088,7 @@
         <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H12" s="4">
         <v>12300000</v>
@@ -1099,16 +1099,16 @@
       <c r="J12" s="3">
         <v>2</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>31</v>
+      <c r="L12" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="M12" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
@@ -1117,7 +1117,7 @@
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>7</v>
@@ -1126,9 +1126,9 @@
         <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="9">
+        <v>17</v>
+      </c>
+      <c r="H13" s="7">
         <v>200000</v>
       </c>
       <c r="I13" s="3">
@@ -1138,15 +1138,15 @@
         <v>4.5</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="M13" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>12</v>
@@ -1155,7 +1155,7 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>7</v>
@@ -1164,7 +1164,7 @@
         <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I14" s="3">
         <v>360</v>
@@ -1176,15 +1176,15 @@
         <v>3.7</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>12</v>
@@ -1193,7 +1193,7 @@
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>7</v>
@@ -1202,7 +1202,7 @@
         <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I15" s="3">
         <v>360</v>
@@ -1214,10 +1214,10 @@
         <v>4.08</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="M15" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
